--- a/Results/Mitigation_direct/results_df_gender_direct.xlsx
+++ b/Results/Mitigation_direct/results_df_gender_direct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,172 +436,157 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distance_km</t>
+          <t>cand_gender</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>match_score</t>
+          <t>cand_age_bucket</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>match_rank</t>
+          <t>cand_domicile_province</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cand_gender</t>
+          <t>cand_domicile_region</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cand_age_bucket</t>
+          <t>job_contract_type</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_province</t>
+          <t>job_work_province</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cand_domicile_region</t>
+          <t>Svedese</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>job_contract_type</t>
+          <t>Spagnolo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>job_work_province</t>
+          <t>Finlandese</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Ebraico</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Persiano</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Portoghese</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cinese</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Arabo</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Serbo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Albanese</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Croato</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Ceco</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Danese</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Rumeno</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Macedone</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Tedesco</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Persiano</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Svedese</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Albanese</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Spagnolo</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Croato</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Finlandese</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Arabo</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Danese</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Serbo</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Portoghese</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Ebraico</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Rumeno</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Cinese</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.017898852</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.9184876399999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -616,48 +601,39 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>229.42435701</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.935386659999935</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -702,45 +678,36 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>607.821358297</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>27.9190292200001</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>585</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -752,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -770,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -780,50 +747,41 @@
       </c>
       <c r="V4" t="n">
         <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1146.527752113</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.506744400000073</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="G5" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -832,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -850,33 +808,24 @@
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>907.0047919659999</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>50.07099926000001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -885,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -906,17 +855,17 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
@@ -930,30 +879,21 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1347.359169157</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>66.98817436000023</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -962,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -989,11 +929,11 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
@@ -1010,67 +950,58 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>261.8383848110001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>9.574043410000129</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="G8" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
@@ -1078,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1087,149 +1018,131 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1429.262764452</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>67.32762171000005</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1721</v>
+        <v>412</v>
       </c>
       <c r="G9" t="n">
-        <v>1260</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>412</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>509.016976397</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>74.35688774000009</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>955</v>
+        <v>780</v>
       </c>
       <c r="G10" t="n">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>780</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1241,39 +1154,30 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>624.8993186010001</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.731727609999822</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1285,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1309,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1318,16 +1222,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Mitigation_direct/results_df_gender_direct.xlsx
+++ b/Results/Mitigation_direct/results_df_gender_direct.xlsx
@@ -553,16 +553,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>11.08</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>1.69</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>185</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>0.77</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0.92</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>585</v>
+        <v>45.8</v>
       </c>
       <c r="D4" t="n">
-        <v>128</v>
+        <v>13.69</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>223</v>
+        <v>21.5</v>
       </c>
       <c r="D5" t="n">
-        <v>180</v>
+        <v>16.75</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>85</v>
+        <v>6.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -781,16 +781,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>953</v>
+        <v>62.76</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>464</v>
+        <v>20.09</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>0.32</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>484</v>
+        <v>61.48</v>
       </c>
       <c r="D8" t="n">
-        <v>159</v>
+        <v>26.67</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>180</v>
+        <v>7.41</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -994,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0.74</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1721</v>
+        <v>37.74</v>
       </c>
       <c r="D9" t="n">
-        <v>1260</v>
+        <v>44.57</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>412</v>
+        <v>10.61</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1097,34 +1097,34 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>955</v>
+        <v>49.52</v>
       </c>
       <c r="D10" t="n">
-        <v>248</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>780</v>
+        <v>28.41</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0.16</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>0.48</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>0.32</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>346</v>
+        <v>39.26</v>
       </c>
       <c r="D11" t="n">
-        <v>85</v>
+        <v>10.74</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1.48</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
     </row>
   </sheetData>
